--- a/data/trans_orig/Q5409A_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/Q5409A_2023-Dificultad-trans_orig.xlsx
@@ -744,16 +744,16 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>2696</v>
+        <v>2631</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.07063032251630962</v>
+        <v>0.0706303225163096</v>
       </c>
       <c r="H4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3122718775262139</v>
+        <v>0.3046993623963569</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -762,19 +762,19 @@
         <v>2262</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5665</v>
+        <v>5922</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06093591599262359</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01716902198017182</v>
+        <v>0.01728939843884124</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1525874520856561</v>
+        <v>0.1595026631828166</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -783,19 +783,19 @@
         <v>2872</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1056</v>
+        <v>910</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6350</v>
+        <v>6629</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.0627650797552628</v>
+        <v>0.06276507975526278</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02308550289576486</v>
+        <v>0.01988372269782785</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.138760237989099</v>
+        <v>0.1448522036729417</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>2226</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>753</v>
+        <v>484</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5087</v>
+        <v>4798</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2577507840750576</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08721148578594409</v>
+        <v>0.05601130611555272</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5890666598226949</v>
+        <v>0.5556669532109744</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>30</v>
@@ -833,19 +833,19 @@
         <v>17796</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>13198</v>
+        <v>12901</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>22991</v>
+        <v>22349</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4793034059718388</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3554507404359646</v>
+        <v>0.3474616737233768</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6192111021423943</v>
+        <v>0.6019192611273495</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>34</v>
@@ -854,19 +854,19 @@
         <v>20022</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>15322</v>
+        <v>14792</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>25282</v>
+        <v>25278</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.4375003284444888</v>
+        <v>0.4375003284444886</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3348030817749041</v>
+        <v>0.3232266338079518</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.552433411535408</v>
+        <v>0.5523516246528314</v>
       </c>
     </row>
     <row r="6">
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>3827</v>
+        <v>3799</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1399844650682674</v>
@@ -942,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4432170665072285</v>
+        <v>0.4399426720967998</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>15</v>
@@ -951,19 +951,19 @@
         <v>9013</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5379</v>
+        <v>5597</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>13614</v>
+        <v>13548</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.2427410380092778</v>
+        <v>0.2427410380092777</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1448754777262053</v>
+        <v>0.1507478648691573</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3666583959368143</v>
+        <v>0.3648797668929405</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>17</v>
@@ -972,19 +972,19 @@
         <v>10222</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>6565</v>
+        <v>6401</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>15674</v>
+        <v>15254</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2233526825552895</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1434469637756863</v>
+        <v>0.1398704547292102</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3424862396743648</v>
+        <v>0.3333223976221971</v>
       </c>
     </row>
     <row r="8">
@@ -1001,19 +1001,19 @@
         <v>4591</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2153</v>
+        <v>2237</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6973</v>
+        <v>6772</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.5316344283403655</v>
+        <v>0.5316344283403652</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2493371562608905</v>
+        <v>0.259114464750495</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.807470706635082</v>
+        <v>0.784198609919645</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>14</v>
@@ -1022,19 +1022,19 @@
         <v>8058</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>4825</v>
+        <v>4366</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>12469</v>
+        <v>12055</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2170196400262599</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1299510388852219</v>
+        <v>0.1175910767308106</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3358239099651756</v>
+        <v>0.3246666286359515</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>20</v>
@@ -1043,19 +1043,19 @@
         <v>12648</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>8363</v>
+        <v>8309</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>17794</v>
+        <v>17759</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.2763819092449591</v>
+        <v>0.276381909244959</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.182737448890171</v>
+        <v>0.1815536014291107</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3888307342584819</v>
+        <v>0.3880513967515989</v>
       </c>
     </row>
     <row r="9">
@@ -1147,19 +1147,19 @@
         <v>1508</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>442</v>
+        <v>334</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>3641</v>
+        <v>3447</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08979555042410552</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02630890340507435</v>
+        <v>0.01990093015911407</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.216766603974124</v>
+        <v>0.205238778871797</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -1168,19 +1168,19 @@
         <v>4930</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2562</v>
+        <v>2535</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8894</v>
+        <v>8875</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1170388465927</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06082147675296717</v>
+        <v>0.06018327990122185</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2111703116423666</v>
+        <v>0.2107092093757209</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>14</v>
@@ -1189,19 +1189,19 @@
         <v>6438</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3748</v>
+        <v>3642</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>10478</v>
+        <v>10481</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1092716714239003</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06361695144182336</v>
+        <v>0.06182436470039485</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1778427790777309</v>
+        <v>0.1778923855184106</v>
       </c>
     </row>
     <row r="11">
@@ -1218,19 +1218,19 @@
         <v>4581</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2192</v>
+        <v>2019</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7809</v>
+        <v>8180</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.27273424397231</v>
+        <v>0.2727342439723101</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1304827798921525</v>
+        <v>0.1202101168470468</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4648815432341334</v>
+        <v>0.4869850085915102</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>45</v>
@@ -1239,19 +1239,19 @@
         <v>23877</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>19001</v>
+        <v>19069</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>28488</v>
+        <v>28483</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.5668846145438325</v>
+        <v>0.5668846145438328</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4511155503116039</v>
+        <v>0.4527361471027737</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.676368643708512</v>
+        <v>0.6762468734525677</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>53</v>
@@ -1260,19 +1260,19 @@
         <v>28458</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>22853</v>
+        <v>22612</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>34112</v>
+        <v>34159</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4830211407535308</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3878958457636301</v>
+        <v>0.3837983410521509</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5789908839005778</v>
+        <v>0.5797875914666198</v>
       </c>
     </row>
     <row r="12">
@@ -1292,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3245</v>
+        <v>3211</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.04047984005436817</v>
@@ -1301,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1932123960675333</v>
+        <v>0.1911591242213051</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>3</v>
@@ -1310,19 +1310,19 @@
         <v>1816</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>4915</v>
+        <v>4706</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.04312004506798637</v>
+        <v>0.04312004506798638</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01342676317646909</v>
+        <v>0.01347277804205499</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1166973181289584</v>
+        <v>0.1117236673783951</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>4</v>
@@ -1331,19 +1331,19 @@
         <v>2496</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>596</v>
+        <v>648</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>6189</v>
+        <v>5962</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.0423673118195788</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01012033534998193</v>
+        <v>0.01100259304193543</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1050416171290855</v>
+        <v>0.1011887967181501</v>
       </c>
     </row>
     <row r="13">
@@ -1360,19 +1360,19 @@
         <v>5474</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2992</v>
+        <v>2739</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>9331</v>
+        <v>8891</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.325862151684757</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1781184303216448</v>
+        <v>0.1630513927360081</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5555013371147126</v>
+        <v>0.5293054415721392</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>11</v>
@@ -1381,19 +1381,19 @@
         <v>6884</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4069</v>
+        <v>3657</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>11456</v>
+        <v>11212</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.1634328716745217</v>
+        <v>0.1634328716745218</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09659631727034523</v>
+        <v>0.08683148127486505</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.271982250376747</v>
+        <v>0.2662018453513301</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>19</v>
@@ -1402,19 +1402,19 @@
         <v>12357</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>7998</v>
+        <v>7871</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>17263</v>
+        <v>17702</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2097421237772785</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1357463314140414</v>
+        <v>0.1335961998846618</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2930143677982818</v>
+        <v>0.3004633364513881</v>
       </c>
     </row>
     <row r="14">
@@ -1431,19 +1431,19 @@
         <v>4554</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2295</v>
+        <v>2049</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>7903</v>
+        <v>8127</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2711282138644593</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1366469541137337</v>
+        <v>0.1219598078393409</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4704953066773878</v>
+        <v>0.483815918287533</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>9</v>
@@ -1452,19 +1452,19 @@
         <v>4613</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2326</v>
+        <v>2153</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>8001</v>
+        <v>8685</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1095236221209591</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.05522755940100313</v>
+        <v>0.05112037902807959</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1899635420329954</v>
+        <v>0.2062014129787844</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>16</v>
@@ -1473,19 +1473,19 @@
         <v>9167</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5434</v>
+        <v>5725</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>13799</v>
+        <v>14104</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1555977522257115</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0922374020603864</v>
+        <v>0.09717949036709027</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2342187614630925</v>
+        <v>0.2393931209510313</v>
       </c>
     </row>
     <row r="15">
@@ -1590,19 +1590,19 @@
         <v>3525</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1328</v>
+        <v>1208</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7703</v>
+        <v>7939</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.111007212289434</v>
+        <v>0.1110072122894341</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0418252009984421</v>
+        <v>0.03804161674623586</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2425396667327996</v>
+        <v>0.249997701831531</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -1611,19 +1611,19 @@
         <v>3525</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1207</v>
+        <v>1219</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>7591</v>
+        <v>8054</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.06939980376654242</v>
+        <v>0.06939980376654241</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02375427583893261</v>
+        <v>0.02400154776667697</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1494448146877525</v>
+        <v>0.1585493567391824</v>
       </c>
     </row>
     <row r="17">
@@ -1640,19 +1640,19 @@
         <v>12220</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8672</v>
+        <v>8690</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>15458</v>
+        <v>15548</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.6418114213247108</v>
+        <v>0.6418114213247109</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4554629461036584</v>
+        <v>0.4564270590102475</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8118871086874544</v>
+        <v>0.816576692917624</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>38</v>
@@ -1661,19 +1661,19 @@
         <v>19301</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>15058</v>
+        <v>14643</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>23283</v>
+        <v>23397</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.607764716880658</v>
+        <v>0.6077647168806581</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4741506072195013</v>
+        <v>0.4610917957900439</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7331450984282177</v>
+        <v>0.7367372671068037</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>57</v>
@@ -1682,19 +1682,19 @@
         <v>31521</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>26037</v>
+        <v>25394</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>36629</v>
+        <v>36393</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.6205260060928248</v>
+        <v>0.6205260060928246</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5125554708971801</v>
+        <v>0.4998957855927929</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.72107875907474</v>
+        <v>0.7164227690762263</v>
       </c>
     </row>
     <row r="18">
@@ -1724,19 +1724,19 @@
         <v>1662</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>368</v>
+        <v>395</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>4630</v>
+        <v>5125</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.05233428275162147</v>
+        <v>0.05233428275162148</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01158515490541492</v>
+        <v>0.01242344803372599</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1457786837551019</v>
+        <v>0.1613667517866786</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>3</v>
@@ -1745,19 +1745,19 @@
         <v>1662</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>4856</v>
+        <v>5408</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.03271849529700313</v>
+        <v>0.03271849529700312</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.006854426861846104</v>
+        <v>0.007021500529552274</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.09559236538577522</v>
+        <v>0.1064599660794991</v>
       </c>
     </row>
     <row r="19">
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>2081</v>
+        <v>2452</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02535295224089018</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1093017487387514</v>
+        <v>0.1288051566726166</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>6</v>
@@ -1795,19 +1795,19 @@
         <v>3805</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1564</v>
+        <v>1523</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>8168</v>
+        <v>8263</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.119825219599931</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04925934902349489</v>
+        <v>0.04796691127720951</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2572104309187901</v>
+        <v>0.2601978505292101</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>7</v>
@@ -1816,19 +1816,19 @@
         <v>4288</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1708</v>
+        <v>1858</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>8774</v>
+        <v>9425</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.08441539224706816</v>
+        <v>0.08441539224706818</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03362522296278896</v>
+        <v>0.03658140796646407</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1727320013985831</v>
+        <v>0.1855457416851998</v>
       </c>
     </row>
     <row r="20">
@@ -1845,19 +1845,19 @@
         <v>6337</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2960</v>
+        <v>2957</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>9823</v>
+        <v>9881</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.332835626434399</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1554626958407692</v>
+        <v>0.1552899165554122</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.515917445566368</v>
+        <v>0.5189552956871538</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>7</v>
@@ -1866,19 +1866,19 @@
         <v>3464</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1395</v>
+        <v>1399</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>6724</v>
+        <v>6567</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1090685684783555</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04391279290770862</v>
+        <v>0.04405024337936784</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2117334334326656</v>
+        <v>0.2067918948072241</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>17</v>
@@ -1887,19 +1887,19 @@
         <v>9801</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>6186</v>
+        <v>6203</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>14770</v>
+        <v>14829</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1929403025965616</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.121780142817519</v>
+        <v>0.1221102604552127</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2907666057235281</v>
+        <v>0.2919152437829966</v>
       </c>
     </row>
     <row r="21">
@@ -1994,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1511</v>
+        <v>1714</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01114736583061002</v>
@@ -2003,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05349322443347343</v>
+        <v>0.06070903033889815</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4</v>
@@ -2012,19 +2012,19 @@
         <v>2447</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>5408</v>
+        <v>5152</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07567776397767574</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02035975084567486</v>
+        <v>0.02044618973360657</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1672376660851917</v>
+        <v>0.1593267370777401</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>5</v>
@@ -2033,19 +2033,19 @@
         <v>2762</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>962</v>
+        <v>1036</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>6420</v>
+        <v>6477</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04559515159311255</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0158865827288087</v>
+        <v>0.01710136316869632</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1059695735152893</v>
+        <v>0.1069130808563119</v>
       </c>
     </row>
     <row r="23">
@@ -2062,19 +2062,19 @@
         <v>17931</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>13529</v>
+        <v>13327</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>21917</v>
+        <v>21817</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.6349166756978205</v>
+        <v>0.6349166756978206</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4790560825939059</v>
+        <v>0.4719034293106228</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7760806258028993</v>
+        <v>0.7725234681240187</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>44</v>
@@ -2083,19 +2083,19 @@
         <v>23157</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>18480</v>
+        <v>18581</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>26996</v>
+        <v>26668</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.7160649875896159</v>
+        <v>0.716064987589616</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5714344030649331</v>
+        <v>0.5745808757311017</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8347845946712562</v>
+        <v>0.8246349737619687</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>68</v>
@@ -2104,19 +2104,19 @@
         <v>41088</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>34550</v>
+        <v>34831</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>46666</v>
+        <v>46651</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6782354795996126</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.5703041956333493</v>
+        <v>0.5749448765724702</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7703112691039047</v>
+        <v>0.7700602782084974</v>
       </c>
     </row>
     <row r="24">
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>2307</v>
+        <v>2629</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01439904417650865</v>
@@ -2158,7 +2158,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.07133450219136837</v>
+        <v>0.08130535628489077</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1</v>
@@ -2170,7 +2170,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>2701</v>
+        <v>3192</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.007686535388279391</v>
@@ -2179,7 +2179,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04459107817010957</v>
+        <v>0.05268917090405598</v>
       </c>
     </row>
     <row r="25">
@@ -2199,7 +2199,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>2472</v>
+        <v>2621</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01744124786319669</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.08753333798407478</v>
+        <v>0.09280576037100068</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>3</v>
@@ -2217,19 +2217,19 @@
         <v>1610</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>4659</v>
+        <v>4473</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.04978428246280917</v>
+        <v>0.04978428246280916</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.011860200279261</v>
+        <v>0.01211901342117623</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1440741645970018</v>
+        <v>0.1383115648736625</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>4</v>
@@ -2238,19 +2238,19 @@
         <v>2103</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>768</v>
+        <v>782</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>5712</v>
+        <v>5546</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03470669110837088</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01268408984734909</v>
+        <v>0.01290331734657791</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09428836700682712</v>
+        <v>0.09154979344679488</v>
       </c>
     </row>
     <row r="26">
@@ -2267,19 +2267,19 @@
         <v>9503</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>5671</v>
+        <v>5743</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>13956</v>
+        <v>14180</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3364947106083727</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.20081173307428</v>
+        <v>0.20336370771283</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.494176214005982</v>
+        <v>0.5021006056719559</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>7</v>
@@ -2288,19 +2288,19 @@
         <v>4659</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1908</v>
+        <v>2025</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>10098</v>
+        <v>9432</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1440739217933905</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.05900727774719927</v>
+        <v>0.06260424273101878</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3122489045049568</v>
+        <v>0.2916742791825741</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>21</v>
@@ -2309,19 +2309,19 @@
         <v>14162</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>9313</v>
+        <v>8999</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>20487</v>
+        <v>20300</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2337761423106245</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.153736018806409</v>
+        <v>0.1485467212917201</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3381766816317969</v>
+        <v>0.3350894375725061</v>
       </c>
     </row>
     <row r="27">
@@ -2413,19 +2413,19 @@
         <v>2433</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>999</v>
+        <v>923</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>5411</v>
+        <v>4948</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03346042764996544</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01373338448077071</v>
+        <v>0.01269835772638239</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.07441840569717512</v>
+        <v>0.06804213289107425</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>23</v>
@@ -2434,19 +2434,19 @@
         <v>13165</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>8666</v>
+        <v>8410</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>19319</v>
+        <v>19676</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.09183960593812265</v>
+        <v>0.09183960593812267</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.06045260974472168</v>
+        <v>0.05866687624456139</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1347697107496064</v>
+        <v>0.1372666428417135</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>29</v>
@@ -2455,19 +2455,19 @@
         <v>15598</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>10533</v>
+        <v>10447</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>22452</v>
+        <v>22048</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.07219241860055603</v>
+        <v>0.07219241860055604</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.04874993821986814</v>
+        <v>0.04835132887557662</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1039143816086557</v>
+        <v>0.1020479418362048</v>
       </c>
     </row>
     <row r="29">
@@ -2484,19 +2484,19 @@
         <v>36958</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>30286</v>
+        <v>29712</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>44090</v>
+        <v>44015</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.508266276372925</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.4165093325904505</v>
+        <v>0.4086178510882298</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.6063565578378137</v>
+        <v>0.605319284388534</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>157</v>
@@ -2505,19 +2505,19 @@
         <v>84131</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>75312</v>
+        <v>74453</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>93286</v>
+        <v>93092</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.5869121289361132</v>
+        <v>0.5869121289361133</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.5253876075586763</v>
+        <v>0.5193937791802383</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.6507804126414152</v>
+        <v>0.6494265833907251</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>212</v>
@@ -2526,19 +2526,19 @@
         <v>121088</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>109858</v>
+        <v>110432</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>131914</v>
+        <v>132376</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.5604443052369731</v>
+        <v>0.5604443052369733</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.5084667204362102</v>
+        <v>0.5111231007632552</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6105482467746638</v>
+        <v>0.6126885738709162</v>
       </c>
     </row>
     <row r="30">
@@ -2558,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3811</v>
+        <v>3378</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.009351117435697599</v>
@@ -2567,7 +2567,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.05240711767244532</v>
+        <v>0.04645698617703969</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>7</v>
@@ -2576,19 +2576,19 @@
         <v>3944</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1621</v>
+        <v>1651</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>8617</v>
+        <v>8195</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.02751296372104813</v>
+        <v>0.02751296372104814</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01130742717439749</v>
+        <v>0.01151464143505089</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.06011533920894589</v>
+        <v>0.05717278313636761</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>8</v>
@@ -2597,19 +2597,19 @@
         <v>4624</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>2013</v>
+        <v>2184</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>9292</v>
+        <v>9678</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.02140069549755454</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.009316982321541871</v>
+        <v>0.01011063482942129</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.04300536456764051</v>
+        <v>0.04479384855488465</v>
       </c>
     </row>
     <row r="31">
@@ -2626,19 +2626,19 @@
         <v>7658</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>4183</v>
+        <v>3978</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>12216</v>
+        <v>12596</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1053124773299881</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.05753336970674283</v>
+        <v>0.05470865318243589</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1680075681447912</v>
+        <v>0.1732223883033141</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>35</v>
@@ -2647,19 +2647,19 @@
         <v>21312</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>14990</v>
+        <v>15228</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>28960</v>
+        <v>28060</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1486743335952328</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1045716416301392</v>
+        <v>0.1062316492596283</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2020311598528307</v>
+        <v>0.1957530400814661</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>47</v>
@@ -2668,19 +2668,19 @@
         <v>28969</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>21356</v>
+        <v>21605</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>37900</v>
+        <v>37809</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1340811423525818</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.09884271972415654</v>
+        <v>0.09999402643138233</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1754146014655426</v>
+        <v>0.1749929033855051</v>
       </c>
     </row>
     <row r="32">
@@ -2697,19 +2697,19 @@
         <v>24985</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>18554</v>
+        <v>18642</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>31817</v>
+        <v>32158</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.3436097012114239</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2551724896445453</v>
+        <v>0.2563804896982615</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4375628999808953</v>
+        <v>0.4422597120709089</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>37</v>
@@ -2718,19 +2718,19 @@
         <v>20794</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>15070</v>
+        <v>14974</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>28700</v>
+        <v>28748</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.1450609678094832</v>
+        <v>0.1450609678094833</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1051327362960672</v>
+        <v>0.1044632618799114</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2002142246232925</v>
+        <v>0.2005543669726402</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>74</v>
@@ -2739,19 +2739,19 @@
         <v>45779</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>36726</v>
+        <v>36819</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>55842</v>
+        <v>56054</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2118814383123344</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1699828344483671</v>
+        <v>0.1704113171293195</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2584583888646608</v>
+        <v>0.259437885526509</v>
       </c>
     </row>
     <row r="33">
